--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Documents\Aerospace Engineering\3rd Year\SVV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Documents\Aerospace Engineering\3rd Year\SVV\Python Flight\SVV-Flight-Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B34EBA6-CD87-430D-9D0B-6A3606D4513E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEEA44E-D72D-4E09-9EE7-E0D9BD0B5C66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1236" windowWidth="21696" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -328,24 +328,6 @@
   </si>
   <si>
     <t>19:17</t>
-  </si>
-  <si>
-    <t>59:10</t>
-  </si>
-  <si>
-    <t>53:57</t>
-  </si>
-  <si>
-    <t>1:00:35</t>
-  </si>
-  <si>
-    <t>1:01:57</t>
-  </si>
-  <si>
-    <t>1:02:47</t>
-  </si>
-  <si>
-    <t>1:05:20</t>
   </si>
   <si>
     <t>6.0</t>
@@ -899,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1240,7 @@
         <v>532</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2069,40 +2051,40 @@
       <c r="A83" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>101</v>
+      <c r="D83" s="5">
+        <v>3.7465277777777778E-2</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
       </c>
-      <c r="G83" s="5" t="s">
-        <v>103</v>
+      <c r="G83" s="5">
+        <v>4.3020833333333335E-2</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
       </c>
-      <c r="J83" s="5" t="s">
-        <v>100</v>
+      <c r="J83" s="5">
+        <v>4.1087962962962958E-2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>57</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>102</v>
+      <c r="D84" s="5">
+        <v>4.207175925925926E-2</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>104</v>
+      <c r="G84" s="5">
+        <v>4.3599537037037034E-2</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
       </c>
-      <c r="J84" s="5" t="s">
-        <v>105</v>
+      <c r="J84" s="5">
+        <v>4.5370370370370366E-2</v>
       </c>
     </row>
   </sheetData>

--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reini\Documents\LR\3rd year\SVV\Flight dynamics\SVV-Flight-Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B216723-9D08-4884-ACF6-C37DF541E14D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C72499-6BB9-4898-A012-F028E193B78D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{EA6B8B9C-D53E-4F58-BDAD-B78DCC837A6B}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{EA6B8B9C-D53E-4F58-BDAD-B78DCC837A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14EB4C2-7152-42F2-9960-C7947507C77F}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2575,19 +2575,6 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -2604,41 +2591,41 @@
     </row>
     <row r="59" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B59" s="9">
-        <v>1.5548611111111112</v>
+        <v>1.7888888888888888</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="6">
-        <v>6060</v>
+        <v>6880</v>
       </c>
       <c r="E59" s="6">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="F59" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="G59" s="6">
-        <v>0</v>
+        <v>8.5</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H59" s="3">
         <v>2.8</v>
       </c>
       <c r="I59" s="6">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="J59" s="6">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="K59" s="6">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="L59" s="6">
-        <v>664</v>
+        <v>755</v>
       </c>
       <c r="M59" s="3">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -2656,41 +2643,41 @@
     </row>
     <row r="60" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" s="9">
-        <v>1.6326388888888888</v>
+        <v>1.7249999999999999</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="6">
-        <v>6350</v>
+        <v>6550</v>
       </c>
       <c r="E60" s="6">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F60" s="3">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H60" s="3">
         <v>2.8</v>
       </c>
       <c r="I60" s="6">
-        <v>-23</v>
+        <v>-29</v>
       </c>
       <c r="J60" s="6">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K60" s="6">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L60" s="6">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="M60" s="3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -2708,93 +2695,80 @@
     </row>
     <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="9">
-        <v>1.7249999999999999</v>
+        <v>1.6326388888888888</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="6">
-        <v>6550</v>
+        <v>6350</v>
       </c>
       <c r="E61" s="6">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F61" s="3">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H61" s="3">
         <v>2.8</v>
       </c>
       <c r="I61" s="6">
-        <v>-29</v>
+        <v>-23</v>
       </c>
       <c r="J61" s="6">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K61" s="6">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L61" s="6">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="M61" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B62" s="9">
-        <v>1.7888888888888888</v>
+        <v>1.5548611111111112</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="6">
-        <v>6880</v>
+        <v>6060</v>
       </c>
       <c r="E62" s="6">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="F62" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>39</v>
+        <v>5.3</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>2.8</v>
       </c>
       <c r="I62" s="6">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="J62" s="6">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="K62" s="6">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="L62" s="6">
-        <v>755</v>
+        <v>664</v>
       </c>
       <c r="M62" s="3">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>

--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reini\Documents\LR\3rd year\SVV\Flight dynamics\SVV-Flight-Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C72499-6BB9-4898-A012-F028E193B78D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200754A9-F722-4A39-8264-154E5DB3ED72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{EA6B8B9C-D53E-4F58-BDAD-B78DCC837A6B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -144,9 +144,6 @@
     <t>[°C]</t>
   </si>
   <si>
-    <t>-1,5</t>
-  </si>
-  <si>
     <t>* ET = Elapsed Time</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>moved to position:</t>
   </si>
   <si>
-    <t>0,4</t>
-  </si>
-  <si>
     <t>Eigenmotions</t>
   </si>
   <si>
@@ -214,18 +208,6 @@
   </si>
   <si>
     <t>12-mrt.</t>
-  </si>
-  <si>
-    <t>-0,4</t>
-  </si>
-  <si>
-    <t>-0,9</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>-0,5</t>
   </si>
 </sst>
 </file>
@@ -642,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14EB4C2-7152-42F2-9960-C7947507C77F}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +695,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -1818,7 +1800,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1874,7 +1856,7 @@
     </row>
     <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1932,7 +1914,7 @@
     </row>
     <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2039,7 +2021,7 @@
     <row r="42" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>32</v>
@@ -2324,7 +2306,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2352,7 +2334,7 @@
     </row>
     <row r="52" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2488,13 +2470,13 @@
         <v>26</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>27</v>
@@ -2525,7 +2507,7 @@
     <row r="57" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>32</v>
@@ -2546,7 +2528,7 @@
         <v>35</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>36</v>
@@ -2606,8 +2588,8 @@
       <c r="F59" s="3">
         <v>8.5</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>39</v>
+      <c r="G59" s="6">
+        <v>-1.5</v>
       </c>
       <c r="H59" s="3">
         <v>2.8</v>
@@ -2658,8 +2640,8 @@
       <c r="F60" s="3">
         <v>7.3</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>64</v>
+      <c r="G60" s="6">
+        <v>-0.9</v>
       </c>
       <c r="H60" s="3">
         <v>2.8</v>
@@ -2710,8 +2692,8 @@
       <c r="F61" s="3">
         <v>6.3</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>63</v>
+      <c r="G61" s="6">
+        <v>-0.4</v>
       </c>
       <c r="H61" s="3">
         <v>2.8</v>
@@ -2801,8 +2783,8 @@
       <c r="F63" s="3">
         <v>4.5</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>53</v>
+      <c r="G63" s="6">
+        <v>0.4</v>
       </c>
       <c r="H63" s="3">
         <v>2.8</v>
@@ -2853,8 +2835,8 @@
       <c r="F64" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>65</v>
+      <c r="G64" s="6">
+        <v>0.6</v>
       </c>
       <c r="H64" s="3">
         <v>2.8</v>
@@ -2944,7 +2926,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3000,7 +2982,7 @@
     </row>
     <row r="68" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3058,7 +3040,7 @@
     </row>
     <row r="70" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3088,13 +3070,13 @@
     </row>
     <row r="71" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3166,13 +3148,13 @@
         <v>26</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>27</v>
@@ -3203,7 +3185,7 @@
     <row r="74" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>32</v>
@@ -3224,7 +3206,7 @@
         <v>35</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>36</v>
@@ -3321,8 +3303,8 @@
       <c r="F76" s="3">
         <v>5.3</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>66</v>
+      <c r="G76" s="6">
+        <v>-0.5</v>
       </c>
       <c r="H76" s="3">
         <v>2.8</v>
@@ -3360,7 +3342,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3416,7 +3398,7 @@
     </row>
     <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3477,17 +3459,17 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3511,17 +3493,17 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -3542,7 +3524,7 @@
     </row>
     <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3550,14 +3532,14 @@
         <v>2.2479166666666668</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="11">
         <v>4.3020833333333335E-2</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="9">
@@ -3582,7 +3564,7 @@
     </row>
     <row r="84" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3590,14 +3572,14 @@
         <v>4.207175925925926E-2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="11">
         <v>4.3599537037037034E-2</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="11">

--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reini\Documents\LR\3rd year\SVV\Flight dynamics\SVV-Flight-Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200754A9-F722-4A39-8264-154E5DB3ED72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CCE304-20CC-41A1-942C-F0036DA0D9BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{EA6B8B9C-D53E-4F58-BDAD-B78DCC837A6B}"/>
+    <workbookView xWindow="5760" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{EA6B8B9C-D53E-4F58-BDAD-B78DCC837A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>12-mrt.</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Tps1eng</t>
   </si>
 </sst>
 </file>
@@ -624,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14EB4C2-7152-42F2-9960-C7947507C77F}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,8 +1408,12 @@
       <c r="J25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1445,8 +1458,12 @@
       <c r="J26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1519,8 +1536,12 @@
       <c r="J28" s="3">
         <v>12.5</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="K28" s="3">
+        <v>3698.85</v>
+      </c>
+      <c r="L28" s="3">
+        <v>3803.04</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1565,8 +1586,12 @@
       <c r="J29" s="3">
         <v>10.5</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="K29" s="3">
+        <v>3009.89</v>
+      </c>
+      <c r="L29" s="3">
+        <v>3071.74</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -1611,8 +1636,12 @@
       <c r="J30" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="K30" s="3">
+        <v>2401.16</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2527.5500000000002</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -1657,8 +1686,12 @@
       <c r="J31" s="3">
         <v>7.2</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="K31" s="3">
+        <v>1856.19</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2008.22</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -1703,8 +1736,12 @@
       <c r="J32" s="3">
         <v>6</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="K32" s="3">
+        <v>1882.01</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2062.5</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -1749,8 +1786,12 @@
       <c r="J33" s="3">
         <v>5.2</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="K33" s="3">
+        <v>2192.1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2387.56</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2490,9 +2531,15 @@
       <c r="M56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
+      <c r="N56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
@@ -2542,9 +2589,15 @@
       <c r="M57" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
+      <c r="N57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
@@ -2609,9 +2662,15 @@
       <c r="M59" s="3">
         <v>2.5</v>
       </c>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
+      <c r="N59" s="3">
+        <v>1912.71</v>
+      </c>
+      <c r="O59" s="3">
+        <v>2087.71</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1335.52</v>
+      </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
@@ -2661,9 +2720,15 @@
       <c r="M60" s="3">
         <v>3.5</v>
       </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
+      <c r="N60" s="3">
+        <v>1955.14</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2132.88</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1395.28</v>
+      </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
@@ -2713,6 +2778,15 @@
       <c r="M61" s="3">
         <v>4.5</v>
       </c>
+      <c r="N61">
+        <v>1990.61</v>
+      </c>
+      <c r="O61">
+        <v>2161.77</v>
+      </c>
+      <c r="P61">
+        <v>1448.37</v>
+      </c>
     </row>
     <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
@@ -2752,9 +2826,15 @@
       <c r="M62" s="3">
         <v>5.5</v>
       </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
+      <c r="N62" s="3">
+        <v>2024.82</v>
+      </c>
+      <c r="O62" s="3">
+        <v>2208.58</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1511.91</v>
+      </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
@@ -2804,9 +2884,15 @@
       <c r="M63" s="3">
         <v>5</v>
       </c>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="N63" s="3">
+        <v>2024.82</v>
+      </c>
+      <c r="O63" s="3">
+        <v>2048.16</v>
+      </c>
+      <c r="P63" s="3">
+        <v>1289.79</v>
+      </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
@@ -2856,9 +2942,15 @@
       <c r="M64" s="3">
         <v>6.2</v>
       </c>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="N64" s="3">
+        <v>1876.69</v>
+      </c>
+      <c r="O64" s="3">
+        <v>2050.41</v>
+      </c>
+      <c r="P64" s="3">
+        <v>1250.56</v>
+      </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
@@ -2908,9 +3000,15 @@
       <c r="M65" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="N65" s="3">
+        <v>1862.96</v>
+      </c>
+      <c r="O65" s="3">
+        <v>2023.09</v>
+      </c>
+      <c r="P65" s="3">
+        <v>1181.27</v>
+      </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
@@ -3168,8 +3266,12 @@
       <c r="M73" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
+      <c r="N73" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
@@ -3220,8 +3322,12 @@
       <c r="M74" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
+      <c r="N74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>

--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reini\Documents\LR\3rd year\SVV\Flight dynamics\SVV-Flight-Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxke\Dropbox\Lucht en Ruimtevaart\Third Year Courses\Simulation, Verification and Validation\Python\SVV-Flight-Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CCE304-20CC-41A1-942C-F0036DA0D9BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3883A3C4-E3DA-4A44-A7BA-F6C9344931DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{EA6B8B9C-D53E-4F58-BDAD-B78DCC837A6B}"/>
   </bookViews>
@@ -223,6 +223,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -315,6 +318,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14EB4C2-7152-42F2-9960-C7947507C77F}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3635,7 +3641,7 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="9">
-        <v>2.2479166666666668</v>
+        <v>3.7465277777777778E-2</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>55</v>
@@ -3648,8 +3654,8 @@
         <v>56</v>
       </c>
       <c r="I83" s="3"/>
-      <c r="J83" s="9">
-        <v>2.4652777777777777</v>
+      <c r="J83" s="12">
+        <v>4.1087962962962958E-2</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>

--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxke\Dropbox\Lucht en Ruimtevaart\Third Year Courses\Simulation, Verification and Validation\Python\SVV-Flight-Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3883A3C4-E3DA-4A44-A7BA-F6C9344931DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796B19C6-8A20-4B7F-8E7B-F1237F126C66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{EA6B8B9C-D53E-4F58-BDAD-B78DCC837A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -218,13 +223,28 @@
   <si>
     <t>Tps1eng</t>
   </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>ffl</t>
+  </si>
+  <si>
+    <t>ffr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -320,7 +340,7 @@
     <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -639,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14EB4C2-7152-42F2-9960-C7947507C77F}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59:Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,11 +1522,21 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="Q27" t="s">
+        <v>64</v>
+      </c>
+      <c r="R27" t="s">
+        <v>65</v>
+      </c>
+      <c r="S27" t="s">
+        <v>66</v>
+      </c>
+      <c r="T27" t="s">
+        <v>67</v>
+      </c>
+      <c r="U27" t="s">
+        <v>68</v>
+      </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -1543,20 +1573,33 @@
         <v>12.5</v>
       </c>
       <c r="K28" s="3">
-        <v>3698.85</v>
+        <v>3548.34</v>
       </c>
       <c r="L28" s="3">
-        <v>3803.04</v>
+        <v>3649.26</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="Q28">
+        <f>D28*0.3048</f>
+        <v>1527.048</v>
+      </c>
+      <c r="R28">
+        <v>0.41058075011274697</v>
+      </c>
+      <c r="S28">
+        <v>10.425812000000001</v>
+      </c>
+      <c r="T28">
+        <f>G28*0.000125998</f>
+        <v>0.10054640399999999</v>
+      </c>
+      <c r="U28">
+        <f>H28*0.000125998</f>
+        <v>0.102436374</v>
+      </c>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -1593,20 +1636,33 @@
         <v>10.5</v>
       </c>
       <c r="K29" s="3">
-        <v>3009.89</v>
+        <v>2915.2</v>
       </c>
       <c r="L29" s="3">
-        <v>3071.74</v>
+        <v>2975.81</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="Q29">
+        <f>D29*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="R29">
+        <v>0.36436110026785801</v>
+      </c>
+      <c r="S29">
+        <v>8.4456240000000005</v>
+      </c>
+      <c r="T29">
+        <f>G29*0.000125998</f>
+        <v>8.4796653999999999E-2</v>
+      </c>
+      <c r="U29">
+        <f>H29*0.000125998</f>
+        <v>8.5930635999999991E-2</v>
+      </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -1643,20 +1699,33 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="K30" s="3">
-        <v>2401.16</v>
+        <v>2344.6799999999998</v>
       </c>
       <c r="L30" s="3">
-        <v>2527.5500000000002</v>
+        <v>2469.19</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q33" si="0">D30*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="R30">
+        <v>0.31631987956621399</v>
+      </c>
+      <c r="S30">
+        <v>6.7456240000000003</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30:U33" si="1">G30*0.000125998</f>
+        <v>7.0684877999999993E-2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>7.2952842000000004E-2</v>
+      </c>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -1693,20 +1762,33 @@
         <v>7.2</v>
       </c>
       <c r="K31" s="3">
-        <v>1856.19</v>
+        <v>1826.67</v>
       </c>
       <c r="L31" s="3">
-        <v>2008.22</v>
+        <v>1977.24</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>1533.144</v>
+      </c>
+      <c r="R31">
+        <v>0.26824300563972198</v>
+      </c>
+      <c r="S31">
+        <v>5.1654359999999997</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>5.8337073999999996E-2</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>6.0983032E-2</v>
+      </c>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -1743,20 +1825,33 @@
         <v>6</v>
       </c>
       <c r="K32" s="3">
-        <v>1882.01</v>
+        <v>1867.04</v>
       </c>
       <c r="L32" s="3">
-        <v>2062.5</v>
+        <v>2046.75</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>1530.096</v>
+      </c>
+      <c r="R32">
+        <v>0.213338256134256</v>
+      </c>
+      <c r="S32">
+        <v>3.945624</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>5.5817114000000001E-2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>5.8841065999999997E-2</v>
+      </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -1793,20 +1888,33 @@
         <v>5.2</v>
       </c>
       <c r="K33" s="3">
-        <v>2192.1</v>
+        <v>2182.2199999999998</v>
       </c>
       <c r="L33" s="3">
-        <v>2387.56</v>
+        <v>2377.14</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>1557.528</v>
+      </c>
+      <c r="R33">
+        <v>0.193697094998379</v>
+      </c>
+      <c r="S33">
+        <v>3.3239320000000001</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>5.9723051999999999E-2</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>6.2873001999999997E-2</v>
+      </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -2620,11 +2728,21 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
+      <c r="R58" t="s">
+        <v>64</v>
+      </c>
+      <c r="S58" t="s">
+        <v>65</v>
+      </c>
+      <c r="T58" t="s">
+        <v>66</v>
+      </c>
+      <c r="U58" t="s">
+        <v>67</v>
+      </c>
+      <c r="V58" t="s">
+        <v>68</v>
+      </c>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
@@ -2669,20 +2787,33 @@
         <v>2.5</v>
       </c>
       <c r="N59" s="3">
-        <v>1912.71</v>
+        <v>2007.84</v>
       </c>
       <c r="O59" s="3">
-        <v>2087.71</v>
+        <v>2190.69</v>
       </c>
       <c r="P59" s="3">
-        <v>1335.52</v>
+        <v>1497.71</v>
       </c>
       <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
+      <c r="R59">
+        <f>D59*0.3048</f>
+        <v>2097.0239999999999</v>
+      </c>
+      <c r="S59">
+        <v>0.220941</v>
+      </c>
+      <c r="T59">
+        <v>4.1306560000000001</v>
+      </c>
+      <c r="U59">
+        <f t="shared" ref="U59:V63" si="2">J59*0.000125998</f>
+        <v>5.6573102E-2</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="2"/>
+        <v>5.9597053999999997E-2</v>
+      </c>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
@@ -2727,20 +2858,33 @@
         <v>3.5</v>
       </c>
       <c r="N60" s="3">
-        <v>1955.14</v>
+        <v>1969.49</v>
       </c>
       <c r="O60" s="3">
-        <v>2132.88</v>
+        <v>2139.71</v>
       </c>
       <c r="P60" s="3">
-        <v>1395.28</v>
+        <v>1431.08</v>
       </c>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
+      <c r="R60">
+        <f t="shared" ref="R60:R65" si="3">D60*0.3048</f>
+        <v>1996.44</v>
+      </c>
+      <c r="S60">
+        <v>0.23666999999999999</v>
+      </c>
+      <c r="T60">
+        <v>4.4768600000000003</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="2"/>
+        <v>5.7203091999999997E-2</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="2"/>
+        <v>6.0101045999999998E-2</v>
+      </c>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
@@ -2785,13 +2929,31 @@
         <v>4.5</v>
       </c>
       <c r="N61">
-        <v>1990.61</v>
+        <v>1927.97</v>
       </c>
       <c r="O61">
-        <v>2161.77</v>
+        <v>2104.23</v>
       </c>
       <c r="P61">
-        <v>1448.37</v>
+        <v>1373.14</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="3"/>
+        <v>1935.48</v>
+      </c>
+      <c r="S61">
+        <v>0.25281100000000001</v>
+      </c>
+      <c r="T61">
+        <v>5.0806199999999997</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="2"/>
+        <v>5.7707083999999999E-2</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="2"/>
+        <v>6.0731035999999995E-2</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2833,20 +2995,33 @@
         <v>5.5</v>
       </c>
       <c r="N62" s="3">
-        <v>2024.82</v>
+        <v>1880.34</v>
       </c>
       <c r="O62" s="3">
-        <v>2208.58</v>
+        <v>2053.5700000000002</v>
       </c>
       <c r="P62" s="3">
-        <v>1511.91</v>
+        <v>1309.47</v>
       </c>
       <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
+      <c r="R62">
+        <f t="shared" si="3"/>
+        <v>1847.0880000000002</v>
+      </c>
+      <c r="S62">
+        <v>0.270061</v>
+      </c>
+      <c r="T62">
+        <v>5.5060719999999996</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="2"/>
+        <v>5.8211076E-2</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="2"/>
+        <v>6.1235027999999997E-2</v>
+      </c>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
@@ -2891,20 +3066,33 @@
         <v>5</v>
       </c>
       <c r="N63" s="3">
-        <v>2024.82</v>
+        <v>1844.73</v>
       </c>
       <c r="O63" s="3">
-        <v>2048.16</v>
+        <v>2014.74</v>
       </c>
       <c r="P63" s="3">
-        <v>1289.79</v>
+        <v>1264.25</v>
       </c>
       <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
+      <c r="R63">
+        <f t="shared" si="3"/>
+        <v>1877.568</v>
+      </c>
+      <c r="S63">
+        <v>0.29090500000000002</v>
+      </c>
+      <c r="T63">
+        <v>5.2041919999999999</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="2"/>
+        <v>5.858907E-2</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="2"/>
+        <v>6.1613021999999996E-2</v>
+      </c>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
@@ -2949,20 +3137,33 @@
         <v>6.2</v>
       </c>
       <c r="N64" s="3">
-        <v>1876.69</v>
+        <v>1842.59</v>
       </c>
       <c r="O64" s="3">
-        <v>2050.41</v>
+        <v>2010.91</v>
       </c>
       <c r="P64" s="3">
-        <v>1250.56</v>
+        <v>1221.2</v>
       </c>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
+      <c r="R64">
+        <f t="shared" si="3"/>
+        <v>1770.8880000000001</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0.29911100000000002</v>
+      </c>
+      <c r="T64" s="3">
+        <v>5.7107720000000004</v>
+      </c>
+      <c r="U64">
+        <f t="shared" ref="U64:U65" si="4">J64*0.000125998</f>
+        <v>5.9471055999999994E-2</v>
+      </c>
+      <c r="V64">
+        <f t="shared" ref="V64:V65" si="5">K64*0.000125998</f>
+        <v>6.2495007999999998E-2</v>
+      </c>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
@@ -3007,20 +3208,33 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N65" s="3">
-        <v>1862.96</v>
+        <v>1814.3</v>
       </c>
       <c r="O65" s="3">
-        <v>2023.09</v>
+        <v>1971.97</v>
       </c>
       <c r="P65" s="3">
-        <v>1181.27</v>
+        <v>1143.82</v>
       </c>
       <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
+      <c r="R65">
+        <f t="shared" si="3"/>
+        <v>1618.4880000000001</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0.318019</v>
+      </c>
+      <c r="T65" s="3">
+        <v>6.7201719999999998</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="4"/>
+        <v>6.0731035999999995E-2</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="5"/>
+        <v>6.3628989999999996E-2</v>
+      </c>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
